--- a/biology/Biochimie/Furine/Furine.xlsx
+++ b/biology/Biochimie/Furine/Furine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La furine est une protéase à sérine qui catalyse le clivage d'un polypeptide au niveau typiquement  d'une séquence basique de la forme –Arg–Xaa–(Arg/Lys)–Arg-|- où Xaa représente un résidu d'acide α-aminé protéinogène quelconque.
-Cette enzyme, à l'action très spécifique, libère notamment l'albumine, le composant 3 du système du complément et le facteur de von Willebrand par clivage de leur précurseur respectif. Elle participe également au clivage du peptide C de l'insuline (comprenant des séquences basiques) en rendant cette dernière sous sa forme active (liaison des chaines A et B via ponts disulfures). Elle intervient donc pour finaliser la synthèse de certaines protéines en leur conférant leur structure fonctionnelle[2],[3],[4],[5].
+Cette enzyme, à l'action très spécifique, libère notamment l'albumine, le composant 3 du système du complément et le facteur de von Willebrand par clivage de leur précurseur respectif. Elle participe également au clivage du peptide C de l'insuline (comprenant des séquences basiques) en rendant cette dernière sous sa forme active (liaison des chaines A et B via ponts disulfures). Elle intervient donc pour finaliser la synthèse de certaines protéines en leur conférant leur structure fonctionnelle.
 </t>
         </is>
       </c>
